--- a/config_1.19/act_ty_phb_config.xlsx
+++ b/config_1.19/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -76,11 +76,11 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>by_sd_icon_lh_1</t>
+    <t>khqd_001_lzphb_rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hqjnh_046_lhsjb_rank</t>
+    <t>act_ty_by_drop_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,6 +99,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -111,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,7 +156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -212,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +472,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,17 +513,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1610409600</v>
       </c>
-      <c r="F2" s="2">
-        <v>1610985599</v>
+      <c r="F2" s="4">
+        <v>1611590399</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>

--- a/config_1.19/act_ty_phb_config.xlsx
+++ b/config_1.19/act_ty_phb_config.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="4">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="F2" s="4">
         <v>1611590399</v>
